--- a/data/Item.xlsx
+++ b/data/Item.xlsx
@@ -15,11 +15,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet1!$M$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="23">
   <si>
     <t>Category</t>
   </si>
@@ -76,6 +77,18 @@
   </si>
   <si>
     <t>TanimotoCoefficient</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Output1</t>
+  </si>
+  <si>
+    <t>Output2</t>
+  </si>
+  <si>
+    <t>Final Dataset</t>
   </si>
 </sst>
 </file>
@@ -99,7 +112,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,8 +131,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -142,11 +161,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -159,6 +189,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -465,15 +505,19 @@
   <dimension ref="A1:S30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A20" sqref="A20:C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
@@ -492,6 +536,9 @@
       <c r="G1" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="H1" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="I1" s="4" t="s">
         <v>3</v>
       </c>
@@ -500,6 +547,9 @@
       </c>
       <c r="K1" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>3</v>
@@ -854,7 +904,7 @@
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -886,7 +936,7 @@
       <c r="A17" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>2</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -918,7 +968,7 @@
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>3</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -932,41 +982,46 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
     </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="A20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="E20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" t="s">
-        <v>2</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="I20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N20" t="s">
+      <c r="M20" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O20" t="s">
+      <c r="O20" s="3" t="s">
         <v>14</v>
       </c>
       <c r="Q20" s="2" t="s">
@@ -980,47 +1035,48 @@
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="3">
         <f>B2</f>
         <v>1</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <f>VLOOKUP(C2,$A$16:$B$18,2,FALSE)</f>
         <v>1</v>
       </c>
       <c r="C21" s="1">
         <v>5</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="3">
         <f>B2</f>
         <v>1</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="3">
         <f>VLOOKUP(D2,$D$16:$E$18,2,FALSE)</f>
         <v>11</v>
       </c>
-      <c r="G21">
-        <v>3</v>
-      </c>
-      <c r="I21">
+      <c r="G21" s="3">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <f>B2</f>
         <v>1</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="3">
         <f>VLOOKUP(E2,$G$16:$H$18,2,FALSE)</f>
         <v>111</v>
       </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="M21">
+      <c r="K21" s="3">
+        <v>1</v>
+      </c>
+      <c r="M21" s="3">
         <f>B2</f>
         <v>1</v>
       </c>
-      <c r="N21" t="e">
+      <c r="N21" s="3" t="e">
         <f>VLOOKUP(F2,$J$16:$K$17,2,FALSE)</f>
         <v>#N/A</v>
       </c>
+      <c r="O21" s="3"/>
       <c r="Q21">
         <f>B2</f>
         <v>1</v>
@@ -1031,42 +1087,44 @@
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="3">
         <f t="shared" ref="A22:A30" si="0">B3</f>
         <v>2</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <f t="shared" ref="B22:B30" si="1">VLOOKUP(C3,$A$16:$B$18,2,FALSE)</f>
         <v>2</v>
       </c>
       <c r="C22" s="1">
         <v>5</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="3">
         <f t="shared" ref="E22:E30" si="2">B3</f>
         <v>2</v>
       </c>
-      <c r="F22" t="e">
+      <c r="F22" s="3" t="e">
         <f t="shared" ref="F22:F30" si="3">VLOOKUP(D3,$D$16:$E$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="I22">
+      <c r="G22" s="3"/>
+      <c r="I22" s="3">
         <f t="shared" ref="I22:I30" si="4">B3</f>
         <v>2</v>
       </c>
-      <c r="J22" t="e">
+      <c r="J22" s="3" t="e">
         <f t="shared" ref="J22:J30" si="5">VLOOKUP(E3,$G$16:$H$18,2,FALSE)</f>
         <v>#N/A</v>
       </c>
-      <c r="M22">
+      <c r="K22" s="3"/>
+      <c r="M22" s="3">
         <f t="shared" ref="M22:M30" si="6">B3</f>
         <v>2</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <f t="shared" ref="N22:N30" si="7">VLOOKUP(F3,$J$16:$K$17,2,FALSE)</f>
         <v>1111</v>
       </c>
-      <c r="O22">
+      <c r="O22" s="3">
         <v>1</v>
       </c>
       <c r="Q22">
@@ -1079,41 +1137,44 @@
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C23" s="1">
         <v>5</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="F23" t="e">
+      <c r="F23" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="I23">
+      <c r="G23" s="3"/>
+      <c r="I23" s="3">
         <f t="shared" si="4"/>
         <v>3</v>
       </c>
-      <c r="J23" t="e">
+      <c r="J23" s="3" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="M23">
+      <c r="K23" s="3"/>
+      <c r="M23" s="3">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="N23" t="e">
+      <c r="N23" s="3" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
+      <c r="O23" s="3"/>
       <c r="Q23">
         <f t="shared" si="8"/>
         <v>3</v>
@@ -1127,41 +1188,44 @@
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="3">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F24" t="e">
+      <c r="F24" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="I24">
+      <c r="G24" s="3"/>
+      <c r="I24" s="3">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="J24" t="e">
+      <c r="J24" s="3" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="M24">
+      <c r="K24" s="3"/>
+      <c r="M24" s="3">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="3">
         <f t="shared" si="7"/>
         <v>1112</v>
       </c>
+      <c r="O24" s="3"/>
       <c r="Q24">
         <f t="shared" si="8"/>
         <v>4</v>
@@ -1172,47 +1236,48 @@
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="3">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="3">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="I25">
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
+      <c r="I25" s="3">
         <f t="shared" si="4"/>
         <v>5</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="3">
         <f t="shared" si="5"/>
         <v>111</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="M25">
+      <c r="K25" s="3">
+        <v>1</v>
+      </c>
+      <c r="M25" s="3">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="N25" t="e">
+      <c r="N25" s="3" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
+      <c r="O25" s="3"/>
       <c r="Q25">
         <f t="shared" si="8"/>
         <v>5</v>
@@ -1223,41 +1288,44 @@
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="C26" s="1">
         <v>5</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="F26" t="e">
+      <c r="F26" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="I26">
+      <c r="G26" s="3"/>
+      <c r="I26" s="3">
         <f t="shared" si="4"/>
         <v>6</v>
       </c>
-      <c r="J26" t="e">
+      <c r="J26" s="3" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="M26">
+      <c r="K26" s="3"/>
+      <c r="M26" s="3">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="N26" t="e">
+      <c r="N26" s="3" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
+      <c r="O26" s="3"/>
       <c r="Q26">
         <f t="shared" si="8"/>
         <v>6</v>
@@ -1271,42 +1339,44 @@
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C27" s="1">
         <v>5</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="3">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="F27" t="e">
+      <c r="F27" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="I27">
+      <c r="G27" s="3"/>
+      <c r="I27" s="3">
         <f t="shared" si="4"/>
         <v>7</v>
       </c>
-      <c r="J27" t="e">
+      <c r="J27" s="3" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="M27">
+      <c r="K27" s="3"/>
+      <c r="M27" s="3">
         <f t="shared" si="6"/>
         <v>7</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="3">
         <f t="shared" si="7"/>
         <v>1111</v>
       </c>
-      <c r="O27">
+      <c r="O27" s="3">
         <v>1</v>
       </c>
       <c r="Q27">
@@ -1319,47 +1389,48 @@
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C28" s="1">
         <v>5</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="3">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="3">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="I28">
+      <c r="G28" s="3">
+        <v>3</v>
+      </c>
+      <c r="I28" s="3">
         <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="3">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="M28">
+      <c r="K28" s="3">
+        <v>1</v>
+      </c>
+      <c r="M28" s="3">
         <f t="shared" si="6"/>
         <v>8</v>
       </c>
-      <c r="N28" t="e">
+      <c r="N28" s="3" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
+      <c r="O28" s="3"/>
       <c r="Q28">
         <f t="shared" si="8"/>
         <v>8</v>
@@ -1370,47 +1441,48 @@
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="C29" s="1">
         <v>5</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="3">
         <f t="shared" si="3"/>
         <v>11</v>
       </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="I29">
+      <c r="G29" s="3">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
         <f t="shared" si="4"/>
         <v>9</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <f t="shared" si="5"/>
         <v>112</v>
       </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="M29">
+      <c r="K29" s="3">
+        <v>1</v>
+      </c>
+      <c r="M29" s="3">
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-      <c r="N29" t="e">
+      <c r="N29" s="3" t="e">
         <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
+      <c r="O29" s="3"/>
       <c r="Q29">
         <f t="shared" si="8"/>
         <v>9</v>
@@ -1421,42 +1493,44 @@
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="C30" s="1">
         <v>5</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="3">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="F30" t="e">
+      <c r="F30" s="3" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="I30">
+      <c r="G30" s="3"/>
+      <c r="I30" s="3">
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="J30" t="e">
+      <c r="J30" s="3" t="e">
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="M30">
+      <c r="K30" s="3"/>
+      <c r="M30" s="3">
         <f t="shared" si="6"/>
         <v>10</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="3">
         <f t="shared" si="7"/>
         <v>1112</v>
       </c>
-      <c r="O30">
+      <c r="O30" s="3">
         <v>1</v>
       </c>
       <c r="Q30">
